--- a/Scripts/Purdue/CROCAssembly_DualROC/info.xlsx
+++ b/Scripts/Purdue/CROCAssembly_DualROC/info.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D0DDC0-5327-4D4F-A613-F7B3A0944305}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF1F38-302D-4B36-BEF1-AE5B1B6ECA14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ROC Bond length" sheetId="1" r:id="rId1"/>
+    <sheet name="ROC Thickness" sheetId="1" r:id="rId1"/>
     <sheet name="HDI Bond Lengths" sheetId="2" r:id="rId2"/>
     <sheet name="Check" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
@@ -194,7 +194,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -314,6 +314,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,26 +334,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +629,7 @@
   <dimension ref="B3:J21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B12" sqref="B12:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -668,21 +668,21 @@
       <c r="F4" s="9">
         <v>523.96015299999999</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18">
         <f>AVERAGE(E4:E5)</f>
         <v>111.2436575</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="15">
         <f>AVERAGE(F4:F5)</f>
         <v>523.99261899999999</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="13"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
@@ -692,13 +692,13 @@
       <c r="F5" s="9">
         <v>524.02508499999999</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="12"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -710,21 +710,21 @@
       <c r="F6" s="9">
         <v>545.05620299999998</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18">
         <f>AVERAGE(E6:E7)</f>
         <v>111.095907</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="15">
         <f>AVERAGE(F6:F7)</f>
         <v>545.05620299999998</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
@@ -734,10 +734,10 @@
       <c r="F7" s="9">
         <v>545.05620299999998</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H8" s="1" t="s">
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A67F97-2CF7-46B6-9F1C-A7D7B4124A1F}">
   <dimension ref="B3:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -924,10 +924,10 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -942,11 +942,11 @@
       <c r="G4" s="1">
         <v>99.792688999999996</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="3">
@@ -970,8 +970,8 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
@@ -984,17 +984,17 @@
       <c r="G5" s="1">
         <v>99.792688999999996</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
       <c r="N5" s="4"/>
       <c r="P5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1009,11 +1009,11 @@
       <c r="G6" s="1">
         <v>99.792688999999996</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="22" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="1">
@@ -1035,8 +1035,8 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1049,16 +1049,16 @@
       <c r="G7" s="1">
         <v>99.792691000000005</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1073,11 +1073,11 @@
       <c r="G8" s="1">
         <v>99.792687999999998</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="22" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="1">
@@ -1101,8 +1101,8 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1115,13 +1115,13 @@
       <c r="G9" s="1">
         <v>99.792689999999993</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1136,11 +1136,11 @@
       <c r="G10" s="1">
         <v>99.792689999999993</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="1">
@@ -1157,8 +1157,8 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1171,9 +1171,9 @@
       <c r="G11" s="1">
         <v>99.792691000000005</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
@@ -1231,7 +1231,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="19">
+      <c r="B19" s="11">
         <v>44826</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1349,12 +1349,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="H4:I5"/>
     <mergeCell ref="H6:I7"/>
     <mergeCell ref="H8:I9"/>
@@ -1363,6 +1357,12 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -1454,7 +1454,7 @@
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1466,7 +1466,7 @@
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="17"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1476,7 +1476,7 @@
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="17"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="17"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1521,7 +1521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE750C2F-F5A5-4F24-B11A-5A86FFCF01AD}">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -1543,10 +1543,10 @@
       <c r="G1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       <c r="E3">
         <v>93.698943999999997</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="14">
         <f t="shared" ref="G3:G5" si="0">H3/1000</f>
         <v>4.6269999999992706E-6</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="E4">
         <v>93.684821999999997</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="14">
         <f t="shared" si="0"/>
         <v>1.8748999999999681E-5</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="E5">
         <v>93.654961999999998</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="14">
         <f t="shared" si="0"/>
         <v>4.8608999999999012E-5</v>
       </c>
